--- a/Analise de dados/datasets/notasAlunos.xlsx
+++ b/Analise de dados/datasets/notasAlunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisc\Documents\GitHub\aulas-graduacao\Analise de dados\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10BA5717-37C3-48FF-9C93-B9A462D7EBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F15E1-1B91-411C-B9ED-768503497DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64FD330A-9B91-4BAA-9FEE-E94B99CDED8E}"/>
   </bookViews>
@@ -1767,8 +1767,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1796,9 +1804,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2155,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677856DA-ECE5-499D-9C0D-63A0C2764AC8}">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,7 +2184,7 @@
     <col min="10" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2210,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>63227467787</v>
       </c>
@@ -2232,8 +2241,8 @@
       <c r="G2" s="1">
         <v>9</v>
       </c>
-      <c r="H2" s="1">
-        <v>15</v>
+      <c r="H2">
+        <v>22</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -2245,7 +2254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>55774275097</v>
       </c>
@@ -2267,8 +2276,8 @@
       <c r="G3" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H3" s="1">
-        <v>9</v>
+      <c r="H3">
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -2280,7 +2289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>76059134116</v>
       </c>
@@ -2302,8 +2311,8 @@
       <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1">
-        <v>11</v>
+      <c r="H4">
+        <v>14</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -2315,7 +2324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>64295541703</v>
       </c>
@@ -2337,8 +2346,8 @@
       <c r="G5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H5" s="1">
-        <v>14</v>
+      <c r="H5">
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -2350,7 +2359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>71033266097</v>
       </c>
@@ -2372,8 +2381,8 @@
       <c r="G6" s="1">
         <v>9</v>
       </c>
-      <c r="H6" s="1">
-        <v>2</v>
+      <c r="H6">
+        <v>15</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -2385,7 +2394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>94355846566</v>
       </c>
@@ -2407,8 +2416,8 @@
       <c r="G7" s="1">
         <v>7</v>
       </c>
-      <c r="H7" s="1">
-        <v>19</v>
+      <c r="H7">
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -2420,7 +2429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>80830562656</v>
       </c>
@@ -2442,8 +2451,8 @@
       <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="H8" s="1">
-        <v>13</v>
+      <c r="H8">
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -2455,7 +2464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>76852042511</v>
       </c>
@@ -2477,8 +2486,8 @@
       <c r="G9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="1">
-        <v>18</v>
+      <c r="H9">
+        <v>11</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -2490,7 +2499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>91522109945</v>
       </c>
@@ -2512,8 +2521,8 @@
       <c r="G10" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H10" s="1">
-        <v>13</v>
+      <c r="H10">
+        <v>15</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
@@ -2525,7 +2534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>71863649027</v>
       </c>
@@ -2547,8 +2556,8 @@
       <c r="G11" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H11" s="1">
-        <v>20</v>
+      <c r="H11">
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -2559,8 +2568,9 @@
       <c r="K11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>82373740270</v>
       </c>
@@ -2582,8 +2592,8 @@
       <c r="G12" s="1">
         <v>8</v>
       </c>
-      <c r="H12" s="1">
-        <v>15</v>
+      <c r="H12">
+        <v>8</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -2595,7 +2605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>57200402542</v>
       </c>
@@ -2617,8 +2627,8 @@
       <c r="G13" s="1">
         <v>8</v>
       </c>
-      <c r="H13" s="1">
-        <v>11</v>
+      <c r="H13">
+        <v>14</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -2630,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>60126099851</v>
       </c>
@@ -2652,8 +2662,8 @@
       <c r="G14" s="1">
         <v>8</v>
       </c>
-      <c r="H14" s="1">
-        <v>2</v>
+      <c r="H14">
+        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -2665,7 +2675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>97496463855</v>
       </c>
@@ -2687,7 +2697,7 @@
       <c r="G15" s="1">
         <v>6</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>13</v>
       </c>
       <c r="I15" t="s">
@@ -2700,7 +2710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>68646765054</v>
       </c>
@@ -2722,8 +2732,8 @@
       <c r="G16" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H16" s="1">
-        <v>8</v>
+      <c r="H16">
+        <v>10</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -2757,8 +2767,8 @@
       <c r="G17" s="1">
         <v>8</v>
       </c>
-      <c r="H17" s="1">
-        <v>9</v>
+      <c r="H17">
+        <v>6</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -2792,8 +2802,8 @@
       <c r="G18" s="1">
         <v>8</v>
       </c>
-      <c r="H18" s="1">
-        <v>13</v>
+      <c r="H18">
+        <v>10</v>
       </c>
       <c r="I18" t="s">
         <v>23</v>
@@ -2827,7 +2837,7 @@
       <c r="G19" s="1">
         <v>8</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>11</v>
       </c>
       <c r="I19" t="s">
@@ -2862,8 +2872,8 @@
       <c r="G20" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H20" s="1">
-        <v>20</v>
+      <c r="H20">
+        <v>17</v>
       </c>
       <c r="I20" t="s">
         <v>52</v>
@@ -2897,8 +2907,8 @@
       <c r="G21" s="1">
         <v>9</v>
       </c>
-      <c r="H21" s="1">
-        <v>20</v>
+      <c r="H21">
+        <v>10</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -2932,8 +2942,8 @@
       <c r="G22" s="1">
         <v>7</v>
       </c>
-      <c r="H22" s="1">
-        <v>7</v>
+      <c r="H22">
+        <v>13</v>
       </c>
       <c r="I22" t="s">
         <v>52</v>
@@ -2967,8 +2977,8 @@
       <c r="G23" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
+      <c r="H23">
+        <v>12</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -3002,8 +3012,8 @@
       <c r="G24" s="1">
         <v>10</v>
       </c>
-      <c r="H24" s="1">
-        <v>11</v>
+      <c r="H24">
+        <v>9</v>
       </c>
       <c r="I24" t="s">
         <v>36</v>
@@ -3037,8 +3047,8 @@
       <c r="G25" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H25" s="1">
-        <v>13</v>
+      <c r="H25">
+        <v>16</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -3072,8 +3082,8 @@
       <c r="G26" s="1">
         <v>9</v>
       </c>
-      <c r="H26" s="1">
-        <v>13</v>
+      <c r="H26">
+        <v>6</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -3107,8 +3117,8 @@
       <c r="G27" s="1">
         <v>7</v>
       </c>
-      <c r="H27" s="1">
-        <v>16</v>
+      <c r="H27">
+        <v>9</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -3142,8 +3152,8 @@
       <c r="G28" s="1">
         <v>8</v>
       </c>
-      <c r="H28" s="1">
-        <v>14</v>
+      <c r="H28">
+        <v>18</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -3177,8 +3187,8 @@
       <c r="G29" s="1">
         <v>8</v>
       </c>
-      <c r="H29" s="1">
-        <v>15</v>
+      <c r="H29">
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>36</v>
@@ -3212,8 +3222,8 @@
       <c r="G30" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H30" s="1">
-        <v>16</v>
+      <c r="H30">
+        <v>17</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -3247,8 +3257,8 @@
       <c r="G31" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H31" s="1">
-        <v>4</v>
+      <c r="H31">
+        <v>12</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -3282,8 +3292,8 @@
       <c r="G32" s="1">
         <v>7</v>
       </c>
-      <c r="H32" s="1">
-        <v>20</v>
+      <c r="H32">
+        <v>12</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -3317,8 +3327,8 @@
       <c r="G33" s="1">
         <v>8</v>
       </c>
-      <c r="H33" s="1">
-        <v>0</v>
+      <c r="H33">
+        <v>12</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -3352,8 +3362,8 @@
       <c r="G34" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H34" s="1">
-        <v>5</v>
+      <c r="H34">
+        <v>7</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -3387,8 +3397,8 @@
       <c r="G35" s="1">
         <v>8</v>
       </c>
-      <c r="H35" s="1">
-        <v>13</v>
+      <c r="H35">
+        <v>15</v>
       </c>
       <c r="I35" t="s">
         <v>38</v>
@@ -3422,8 +3432,8 @@
       <c r="G36" s="1">
         <v>9</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
+      <c r="H36">
+        <v>15</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -3457,8 +3467,8 @@
       <c r="G37" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H37" s="1">
-        <v>12</v>
+      <c r="H37">
+        <v>11</v>
       </c>
       <c r="I37" t="s">
         <v>27</v>
@@ -3492,8 +3502,8 @@
       <c r="G38" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H38" s="1">
-        <v>17</v>
+      <c r="H38">
+        <v>9</v>
       </c>
       <c r="I38" t="s">
         <v>36</v>
@@ -3527,8 +3537,8 @@
       <c r="G39" s="1">
         <v>8</v>
       </c>
-      <c r="H39" s="1">
-        <v>12</v>
+      <c r="H39">
+        <v>10</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -3562,8 +3572,8 @@
       <c r="G40" s="1">
         <v>8</v>
       </c>
-      <c r="H40" s="1">
-        <v>13</v>
+      <c r="H40">
+        <v>18</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -3597,8 +3607,8 @@
       <c r="G41" s="1">
         <v>7</v>
       </c>
-      <c r="H41" s="1">
-        <v>15</v>
+      <c r="H41">
+        <v>13</v>
       </c>
       <c r="I41" t="s">
         <v>27</v>
@@ -3632,7 +3642,7 @@
       <c r="G42" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42">
         <v>14</v>
       </c>
       <c r="I42" t="s">
@@ -3667,8 +3677,8 @@
       <c r="G43" s="1">
         <v>7</v>
       </c>
-      <c r="H43" s="1">
-        <v>3</v>
+      <c r="H43">
+        <v>14</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -3702,8 +3712,8 @@
       <c r="G44" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H44" s="1">
-        <v>15</v>
+      <c r="H44">
+        <v>8</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -3737,8 +3747,8 @@
       <c r="G45" s="1">
         <v>8</v>
       </c>
-      <c r="H45" s="1">
-        <v>14</v>
+      <c r="H45">
+        <v>12</v>
       </c>
       <c r="I45" t="s">
         <v>52</v>
@@ -3772,8 +3782,8 @@
       <c r="G46" s="1">
         <v>8</v>
       </c>
-      <c r="H46" s="1">
-        <v>19</v>
+      <c r="H46">
+        <v>12</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -3807,8 +3817,8 @@
       <c r="G47" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H47" s="1">
-        <v>13</v>
+      <c r="H47">
+        <v>10</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -3842,8 +3852,8 @@
       <c r="G48" s="1">
         <v>8</v>
       </c>
-      <c r="H48" s="1">
-        <v>9</v>
+      <c r="H48">
+        <v>10</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -3877,8 +3887,8 @@
       <c r="G49" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H49" s="1">
-        <v>3</v>
+      <c r="H49">
+        <v>13</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -3912,8 +3922,8 @@
       <c r="G50" s="1">
         <v>8</v>
       </c>
-      <c r="H50" s="1">
-        <v>6</v>
+      <c r="H50">
+        <v>9</v>
       </c>
       <c r="I50" t="s">
         <v>38</v>
@@ -3947,8 +3957,8 @@
       <c r="G51" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H51" s="1">
-        <v>6</v>
+      <c r="H51">
+        <v>14</v>
       </c>
       <c r="I51" t="s">
         <v>38</v>
@@ -3982,8 +3992,8 @@
       <c r="G52" s="1">
         <v>6</v>
       </c>
-      <c r="H52" s="1">
-        <v>3</v>
+      <c r="H52">
+        <v>16</v>
       </c>
       <c r="I52" t="s">
         <v>23</v>
@@ -4017,8 +4027,8 @@
       <c r="G53" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H53" s="1">
-        <v>4</v>
+      <c r="H53">
+        <v>8</v>
       </c>
       <c r="I53" t="s">
         <v>17</v>
@@ -4052,8 +4062,8 @@
       <c r="G54" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H54" s="1">
-        <v>0</v>
+      <c r="H54">
+        <v>7</v>
       </c>
       <c r="I54" t="s">
         <v>23</v>
@@ -4087,8 +4097,8 @@
       <c r="G55" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H55" s="1">
-        <v>1</v>
+      <c r="H55">
+        <v>11</v>
       </c>
       <c r="I55" t="s">
         <v>36</v>
@@ -4122,8 +4132,8 @@
       <c r="G56" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H56" s="1">
-        <v>16</v>
+      <c r="H56">
+        <v>20</v>
       </c>
       <c r="I56" t="s">
         <v>36</v>
@@ -4157,8 +4167,8 @@
       <c r="G57" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H57" s="1">
-        <v>8</v>
+      <c r="H57">
+        <v>17</v>
       </c>
       <c r="I57" t="s">
         <v>27</v>
@@ -4192,8 +4202,8 @@
       <c r="G58" s="1">
         <v>8</v>
       </c>
-      <c r="H58" s="1">
-        <v>14</v>
+      <c r="H58">
+        <v>10</v>
       </c>
       <c r="I58" t="s">
         <v>38</v>
@@ -4227,8 +4237,8 @@
       <c r="G59" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H59" s="1">
-        <v>20</v>
+      <c r="H59">
+        <v>16</v>
       </c>
       <c r="I59" t="s">
         <v>17</v>
@@ -4262,8 +4272,8 @@
       <c r="G60" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H60" s="1">
-        <v>19</v>
+      <c r="H60">
+        <v>6</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -4297,8 +4307,8 @@
       <c r="G61" s="1">
         <v>6</v>
       </c>
-      <c r="H61" s="1">
-        <v>0</v>
+      <c r="H61">
+        <v>13</v>
       </c>
       <c r="I61" t="s">
         <v>36</v>
@@ -4332,8 +4342,8 @@
       <c r="G62" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H62" s="1">
-        <v>3</v>
+      <c r="H62">
+        <v>13</v>
       </c>
       <c r="I62" t="s">
         <v>36</v>
@@ -4367,8 +4377,8 @@
       <c r="G63" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H63" s="1">
-        <v>17</v>
+      <c r="H63">
+        <v>9</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -4402,8 +4412,8 @@
       <c r="G64" s="1">
         <v>6</v>
       </c>
-      <c r="H64" s="1">
-        <v>13</v>
+      <c r="H64">
+        <v>7</v>
       </c>
       <c r="I64" t="s">
         <v>27</v>
@@ -4437,8 +4447,8 @@
       <c r="G65" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H65" s="1">
-        <v>9</v>
+      <c r="H65">
+        <v>15</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -4472,8 +4482,8 @@
       <c r="G66" s="1">
         <v>10</v>
       </c>
-      <c r="H66" s="1">
-        <v>7</v>
+      <c r="H66">
+        <v>9</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -4507,8 +4517,8 @@
       <c r="G67" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H67" s="1">
-        <v>2</v>
+      <c r="H67">
+        <v>18</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -4542,8 +4552,8 @@
       <c r="G68" s="1">
         <v>9</v>
       </c>
-      <c r="H68" s="1">
-        <v>18</v>
+      <c r="H68">
+        <v>15</v>
       </c>
       <c r="I68" t="s">
         <v>17</v>
@@ -4577,8 +4587,8 @@
       <c r="G69" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H69" s="1">
-        <v>20</v>
+      <c r="H69">
+        <v>12</v>
       </c>
       <c r="I69" t="s">
         <v>23</v>
@@ -4612,8 +4622,8 @@
       <c r="G70" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H70" s="1">
-        <v>12</v>
+      <c r="H70">
+        <v>17</v>
       </c>
       <c r="I70" t="s">
         <v>17</v>
@@ -4647,7 +4657,7 @@
       <c r="G71" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71">
         <v>10</v>
       </c>
       <c r="I71" t="s">
@@ -4682,8 +4692,8 @@
       <c r="G72" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H72" s="1">
-        <v>4</v>
+      <c r="H72">
+        <v>15</v>
       </c>
       <c r="I72" t="s">
         <v>17</v>
@@ -4717,8 +4727,8 @@
       <c r="G73" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H73" s="1">
-        <v>17</v>
+      <c r="H73">
+        <v>15</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -4752,8 +4762,8 @@
       <c r="G74" s="1">
         <v>9</v>
       </c>
-      <c r="H74" s="1">
-        <v>10</v>
+      <c r="H74">
+        <v>11</v>
       </c>
       <c r="I74" t="s">
         <v>52</v>
@@ -4787,8 +4797,8 @@
       <c r="G75" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H75" s="1">
-        <v>19</v>
+      <c r="H75">
+        <v>18</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -4822,8 +4832,8 @@
       <c r="G76" s="1">
         <v>7</v>
       </c>
-      <c r="H76" s="1">
-        <v>20</v>
+      <c r="H76">
+        <v>9</v>
       </c>
       <c r="I76" t="s">
         <v>27</v>
@@ -4857,8 +4867,8 @@
       <c r="G77" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H77" s="1">
-        <v>2</v>
+      <c r="H77">
+        <v>9</v>
       </c>
       <c r="I77" t="s">
         <v>36</v>
@@ -4892,8 +4902,8 @@
       <c r="G78" s="1">
         <v>6</v>
       </c>
-      <c r="H78" s="1">
-        <v>5</v>
+      <c r="H78">
+        <v>11</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -4927,8 +4937,8 @@
       <c r="G79" s="1">
         <v>8</v>
       </c>
-      <c r="H79" s="1">
-        <v>7</v>
+      <c r="H79">
+        <v>12</v>
       </c>
       <c r="I79" t="s">
         <v>17</v>
@@ -4962,8 +4972,8 @@
       <c r="G80" s="1">
         <v>10</v>
       </c>
-      <c r="H80" s="1">
-        <v>19</v>
+      <c r="H80">
+        <v>7</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -4997,7 +5007,7 @@
       <c r="G81" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H81">
         <v>9</v>
       </c>
       <c r="I81" t="s">
@@ -5032,8 +5042,8 @@
       <c r="G82" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H82" s="1">
-        <v>3</v>
+      <c r="H82">
+        <v>12</v>
       </c>
       <c r="I82" t="s">
         <v>17</v>
@@ -5067,8 +5077,8 @@
       <c r="G83" s="1">
         <v>8</v>
       </c>
-      <c r="H83" s="1">
-        <v>19</v>
+      <c r="H83">
+        <v>12</v>
       </c>
       <c r="I83" t="s">
         <v>36</v>
@@ -5102,7 +5112,7 @@
       <c r="G84" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84">
         <v>5</v>
       </c>
       <c r="I84" t="s">
@@ -5137,8 +5147,8 @@
       <c r="G85" s="1">
         <v>8</v>
       </c>
-      <c r="H85" s="1">
-        <v>6</v>
+      <c r="H85">
+        <v>20</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -5172,8 +5182,8 @@
       <c r="G86" s="1">
         <v>7</v>
       </c>
-      <c r="H86" s="1">
-        <v>14</v>
+      <c r="H86">
+        <v>8</v>
       </c>
       <c r="I86" t="s">
         <v>27</v>
@@ -5207,8 +5217,8 @@
       <c r="G87" s="1">
         <v>7</v>
       </c>
-      <c r="H87" s="1">
-        <v>3</v>
+      <c r="H87">
+        <v>11</v>
       </c>
       <c r="I87" t="s">
         <v>38</v>
@@ -5242,8 +5252,8 @@
       <c r="G88" s="1">
         <v>8</v>
       </c>
-      <c r="H88" s="1">
-        <v>15</v>
+      <c r="H88">
+        <v>16</v>
       </c>
       <c r="I88" t="s">
         <v>52</v>
@@ -5277,8 +5287,8 @@
       <c r="G89" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H89" s="1">
-        <v>20</v>
+      <c r="H89">
+        <v>17</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -5312,8 +5322,8 @@
       <c r="G90" s="1">
         <v>7</v>
       </c>
-      <c r="H90" s="1">
-        <v>5</v>
+      <c r="H90">
+        <v>9</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -5347,8 +5357,8 @@
       <c r="G91" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H91" s="1">
-        <v>1</v>
+      <c r="H91">
+        <v>9</v>
       </c>
       <c r="I91" t="s">
         <v>17</v>
@@ -5382,7 +5392,7 @@
       <c r="G92" s="1">
         <v>6</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H92">
         <v>11</v>
       </c>
       <c r="I92" t="s">
@@ -5417,7 +5427,7 @@
       <c r="G93" s="1">
         <v>10</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H93">
         <v>8</v>
       </c>
       <c r="I93" t="s">
@@ -5452,8 +5462,8 @@
       <c r="G94" s="1">
         <v>7</v>
       </c>
-      <c r="H94" s="1">
-        <v>18</v>
+      <c r="H94">
+        <v>10</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -5487,8 +5497,8 @@
       <c r="G95" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H95" s="1">
-        <v>2</v>
+      <c r="H95">
+        <v>18</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -5522,8 +5532,8 @@
       <c r="G96" s="1">
         <v>8</v>
       </c>
-      <c r="H96" s="1">
-        <v>3</v>
+      <c r="H96">
+        <v>16</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -5557,8 +5567,8 @@
       <c r="G97" s="1">
         <v>9</v>
       </c>
-      <c r="H97" s="1">
-        <v>20</v>
+      <c r="H97">
+        <v>13</v>
       </c>
       <c r="I97" t="s">
         <v>17</v>
@@ -5592,8 +5602,8 @@
       <c r="G98" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H98" s="1">
-        <v>6</v>
+      <c r="H98">
+        <v>18</v>
       </c>
       <c r="I98" t="s">
         <v>36</v>
@@ -5627,8 +5637,8 @@
       <c r="G99" s="1">
         <v>6</v>
       </c>
-      <c r="H99" s="1">
-        <v>0</v>
+      <c r="H99">
+        <v>14</v>
       </c>
       <c r="I99" t="s">
         <v>27</v>
@@ -5662,8 +5672,8 @@
       <c r="G100" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H100" s="1">
-        <v>3</v>
+      <c r="H100">
+        <v>14</v>
       </c>
       <c r="I100" t="s">
         <v>27</v>
@@ -5697,8 +5707,8 @@
       <c r="G101" s="1">
         <v>10</v>
       </c>
-      <c r="H101" s="1">
-        <v>19</v>
+      <c r="H101">
+        <v>12</v>
       </c>
       <c r="I101" t="s">
         <v>23</v>
@@ -5732,8 +5742,8 @@
       <c r="G102" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H102" s="1">
-        <v>14</v>
+      <c r="H102">
+        <v>4</v>
       </c>
       <c r="I102" t="s">
         <v>38</v>
@@ -5767,8 +5777,8 @@
       <c r="G103" s="1">
         <v>8</v>
       </c>
-      <c r="H103" s="1">
-        <v>16</v>
+      <c r="H103">
+        <v>9</v>
       </c>
       <c r="I103" t="s">
         <v>27</v>
@@ -5802,8 +5812,8 @@
       <c r="G104" s="1">
         <v>10</v>
       </c>
-      <c r="H104" s="1">
-        <v>0</v>
+      <c r="H104">
+        <v>6</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -5837,8 +5847,8 @@
       <c r="G105" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H105" s="1">
-        <v>5</v>
+      <c r="H105">
+        <v>10</v>
       </c>
       <c r="I105" t="s">
         <v>17</v>
@@ -5872,8 +5882,8 @@
       <c r="G106" s="1">
         <v>7</v>
       </c>
-      <c r="H106" s="1">
-        <v>3</v>
+      <c r="H106">
+        <v>6</v>
       </c>
       <c r="I106" t="s">
         <v>27</v>
@@ -5907,8 +5917,8 @@
       <c r="G107" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H107" s="1">
-        <v>12</v>
+      <c r="H107">
+        <v>8</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -5942,8 +5952,8 @@
       <c r="G108" s="1">
         <v>7</v>
       </c>
-      <c r="H108" s="1">
-        <v>17</v>
+      <c r="H108">
+        <v>10</v>
       </c>
       <c r="I108" t="s">
         <v>23</v>
@@ -5977,8 +5987,8 @@
       <c r="G109" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H109" s="1">
-        <v>2</v>
+      <c r="H109">
+        <v>16</v>
       </c>
       <c r="I109" t="s">
         <v>23</v>
@@ -6012,8 +6022,8 @@
       <c r="G110" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H110" s="1">
-        <v>11</v>
+      <c r="H110">
+        <v>12</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -6047,8 +6057,8 @@
       <c r="G111" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H111" s="1">
-        <v>0</v>
+      <c r="H111">
+        <v>8</v>
       </c>
       <c r="I111" t="s">
         <v>52</v>
@@ -6082,8 +6092,8 @@
       <c r="G112" s="1">
         <v>8</v>
       </c>
-      <c r="H112" s="1">
-        <v>19</v>
+      <c r="H112">
+        <v>7</v>
       </c>
       <c r="I112" t="s">
         <v>36</v>
@@ -6117,8 +6127,8 @@
       <c r="G113" s="1">
         <v>9</v>
       </c>
-      <c r="H113" s="1">
-        <v>19</v>
+      <c r="H113">
+        <v>14</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -6152,8 +6162,8 @@
       <c r="G114" s="1">
         <v>6</v>
       </c>
-      <c r="H114" s="1">
-        <v>20</v>
+      <c r="H114">
+        <v>18</v>
       </c>
       <c r="I114" t="s">
         <v>36</v>
@@ -6187,8 +6197,8 @@
       <c r="G115" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H115" s="1">
-        <v>15</v>
+      <c r="H115">
+        <v>6</v>
       </c>
       <c r="I115" t="s">
         <v>27</v>
@@ -6222,8 +6232,8 @@
       <c r="G116" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H116" s="1">
-        <v>1</v>
+      <c r="H116">
+        <v>14</v>
       </c>
       <c r="I116" t="s">
         <v>17</v>
@@ -6257,8 +6267,8 @@
       <c r="G117" s="1">
         <v>8</v>
       </c>
-      <c r="H117" s="1">
-        <v>4</v>
+      <c r="H117">
+        <v>18</v>
       </c>
       <c r="I117" t="s">
         <v>23</v>
@@ -6292,8 +6302,8 @@
       <c r="G118" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H118" s="1">
-        <v>20</v>
+      <c r="H118">
+        <v>5</v>
       </c>
       <c r="I118" t="s">
         <v>23</v>
@@ -6327,8 +6337,8 @@
       <c r="G119" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H119" s="1">
-        <v>4</v>
+      <c r="H119">
+        <v>12</v>
       </c>
       <c r="I119" t="s">
         <v>36</v>
@@ -6362,8 +6372,8 @@
       <c r="G120" s="1">
         <v>9</v>
       </c>
-      <c r="H120" s="1">
-        <v>1</v>
+      <c r="H120">
+        <v>12</v>
       </c>
       <c r="I120" t="s">
         <v>23</v>
@@ -6397,8 +6407,8 @@
       <c r="G121" s="1">
         <v>9</v>
       </c>
-      <c r="H121" s="1">
-        <v>12</v>
+      <c r="H121">
+        <v>14</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -6432,8 +6442,8 @@
       <c r="G122" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H122" s="1">
-        <v>4</v>
+      <c r="H122">
+        <v>14</v>
       </c>
       <c r="I122" t="s">
         <v>17</v>
@@ -6467,8 +6477,8 @@
       <c r="G123" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H123" s="1">
-        <v>13</v>
+      <c r="H123">
+        <v>14</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -6502,8 +6512,8 @@
       <c r="G124" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H124" s="1">
-        <v>16</v>
+      <c r="H124">
+        <v>10</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -6537,8 +6547,8 @@
       <c r="G125" s="1">
         <v>8</v>
       </c>
-      <c r="H125" s="1">
-        <v>16</v>
+      <c r="H125">
+        <v>9</v>
       </c>
       <c r="I125" t="s">
         <v>23</v>
@@ -6572,8 +6582,8 @@
       <c r="G126" s="1">
         <v>7</v>
       </c>
-      <c r="H126" s="1">
-        <v>10</v>
+      <c r="H126">
+        <v>7</v>
       </c>
       <c r="I126" t="s">
         <v>38</v>
@@ -6607,8 +6617,8 @@
       <c r="G127" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H127" s="1">
-        <v>10</v>
+      <c r="H127">
+        <v>13</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -6642,8 +6652,8 @@
       <c r="G128" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H128" s="1">
-        <v>15</v>
+      <c r="H128">
+        <v>12</v>
       </c>
       <c r="I128" t="s">
         <v>17</v>
@@ -6677,8 +6687,8 @@
       <c r="G129" s="1">
         <v>8</v>
       </c>
-      <c r="H129" s="1">
-        <v>7</v>
+      <c r="H129">
+        <v>5</v>
       </c>
       <c r="I129" t="s">
         <v>38</v>
@@ -6712,8 +6722,8 @@
       <c r="G130" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H130" s="1">
-        <v>17</v>
+      <c r="H130">
+        <v>7</v>
       </c>
       <c r="I130" t="s">
         <v>38</v>
@@ -6747,8 +6757,8 @@
       <c r="G131" s="1">
         <v>10</v>
       </c>
-      <c r="H131" s="1">
-        <v>18</v>
+      <c r="H131">
+        <v>9</v>
       </c>
       <c r="I131" t="s">
         <v>52</v>
@@ -6782,8 +6792,8 @@
       <c r="G132" s="1">
         <v>7</v>
       </c>
-      <c r="H132" s="1">
-        <v>20</v>
+      <c r="H132">
+        <v>17</v>
       </c>
       <c r="I132" t="s">
         <v>23</v>
@@ -6817,7 +6827,7 @@
       <c r="G133" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H133" s="1">
+      <c r="H133">
         <v>16</v>
       </c>
       <c r="I133" t="s">
@@ -6852,8 +6862,8 @@
       <c r="G134" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H134" s="1">
-        <v>12</v>
+      <c r="H134">
+        <v>13</v>
       </c>
       <c r="I134" t="s">
         <v>12</v>
@@ -6887,8 +6897,8 @@
       <c r="G135" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H135" s="1">
-        <v>4</v>
+      <c r="H135">
+        <v>16</v>
       </c>
       <c r="I135" t="s">
         <v>36</v>
@@ -6922,8 +6932,8 @@
       <c r="G136" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H136" s="1">
-        <v>11</v>
+      <c r="H136">
+        <v>12</v>
       </c>
       <c r="I136" t="s">
         <v>23</v>
@@ -6957,8 +6967,8 @@
       <c r="G137" s="1">
         <v>7</v>
       </c>
-      <c r="H137" s="1">
-        <v>18</v>
+      <c r="H137">
+        <v>15</v>
       </c>
       <c r="I137" t="s">
         <v>36</v>
@@ -6992,8 +7002,8 @@
       <c r="G138" s="1">
         <v>9</v>
       </c>
-      <c r="H138" s="1">
-        <v>7</v>
+      <c r="H138">
+        <v>16</v>
       </c>
       <c r="I138" t="s">
         <v>36</v>
@@ -7027,8 +7037,8 @@
       <c r="G139" s="1">
         <v>6</v>
       </c>
-      <c r="H139" s="1">
-        <v>15</v>
+      <c r="H139">
+        <v>17</v>
       </c>
       <c r="I139" t="s">
         <v>36</v>
@@ -7062,8 +7072,8 @@
       <c r="G140" s="1">
         <v>8</v>
       </c>
-      <c r="H140" s="1">
-        <v>19</v>
+      <c r="H140">
+        <v>14</v>
       </c>
       <c r="I140" t="s">
         <v>12</v>
@@ -7097,8 +7107,8 @@
       <c r="G141" s="1">
         <v>8</v>
       </c>
-      <c r="H141" s="1">
-        <v>20</v>
+      <c r="H141">
+        <v>13</v>
       </c>
       <c r="I141" t="s">
         <v>36</v>
@@ -7132,8 +7142,8 @@
       <c r="G142" s="1">
         <v>9</v>
       </c>
-      <c r="H142" s="1">
-        <v>5</v>
+      <c r="H142">
+        <v>11</v>
       </c>
       <c r="I142" t="s">
         <v>12</v>
@@ -7167,8 +7177,8 @@
       <c r="G143" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H143" s="1">
-        <v>13</v>
+      <c r="H143">
+        <v>10</v>
       </c>
       <c r="I143" t="s">
         <v>12</v>
@@ -7202,8 +7212,8 @@
       <c r="G144" s="1">
         <v>8</v>
       </c>
-      <c r="H144" s="1">
-        <v>18</v>
+      <c r="H144">
+        <v>11</v>
       </c>
       <c r="I144" t="s">
         <v>23</v>
@@ -7237,8 +7247,8 @@
       <c r="G145" s="1">
         <v>7</v>
       </c>
-      <c r="H145" s="1">
-        <v>6</v>
+      <c r="H145">
+        <v>15</v>
       </c>
       <c r="I145" t="s">
         <v>12</v>
@@ -7272,8 +7282,8 @@
       <c r="G146" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H146" s="1">
-        <v>17</v>
+      <c r="H146">
+        <v>20</v>
       </c>
       <c r="I146" t="s">
         <v>12</v>
@@ -7307,8 +7317,8 @@
       <c r="G147" s="1">
         <v>7</v>
       </c>
-      <c r="H147" s="1">
-        <v>17</v>
+      <c r="H147">
+        <v>13</v>
       </c>
       <c r="I147" t="s">
         <v>12</v>
@@ -7342,8 +7352,8 @@
       <c r="G148" s="1">
         <v>8</v>
       </c>
-      <c r="H148" s="1">
-        <v>13</v>
+      <c r="H148">
+        <v>10</v>
       </c>
       <c r="I148" t="s">
         <v>12</v>
@@ -7377,8 +7387,8 @@
       <c r="G149" s="1">
         <v>9</v>
       </c>
-      <c r="H149" s="1">
-        <v>8</v>
+      <c r="H149">
+        <v>16</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -7412,8 +7422,8 @@
       <c r="G150" s="1">
         <v>7</v>
       </c>
-      <c r="H150" s="1">
-        <v>14</v>
+      <c r="H150">
+        <v>11</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -7447,8 +7457,8 @@
       <c r="G151" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H151" s="1">
-        <v>3</v>
+      <c r="H151">
+        <v>11</v>
       </c>
       <c r="I151" t="s">
         <v>38</v>
@@ -7482,8 +7492,8 @@
       <c r="G152" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H152" s="1">
-        <v>20</v>
+      <c r="H152">
+        <v>12</v>
       </c>
       <c r="I152" t="s">
         <v>23</v>
@@ -7517,8 +7527,8 @@
       <c r="G153" s="1">
         <v>8</v>
       </c>
-      <c r="H153" s="1">
-        <v>17</v>
+      <c r="H153">
+        <v>15</v>
       </c>
       <c r="I153" t="s">
         <v>17</v>
@@ -7552,8 +7562,8 @@
       <c r="G154" s="1">
         <v>7</v>
       </c>
-      <c r="H154" s="1">
-        <v>14</v>
+      <c r="H154">
+        <v>11</v>
       </c>
       <c r="I154" t="s">
         <v>38</v>
@@ -7587,8 +7597,8 @@
       <c r="G155" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H155" s="1">
-        <v>2</v>
+      <c r="H155">
+        <v>8</v>
       </c>
       <c r="I155" t="s">
         <v>12</v>
@@ -7622,8 +7632,8 @@
       <c r="G156" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H156" s="1">
-        <v>18</v>
+      <c r="H156">
+        <v>17</v>
       </c>
       <c r="I156" t="s">
         <v>23</v>
@@ -7657,8 +7667,8 @@
       <c r="G157" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H157" s="1">
-        <v>1</v>
+      <c r="H157">
+        <v>15</v>
       </c>
       <c r="I157" t="s">
         <v>27</v>
@@ -7692,8 +7702,8 @@
       <c r="G158" s="1">
         <v>8</v>
       </c>
-      <c r="H158" s="1">
-        <v>2</v>
+      <c r="H158">
+        <v>7</v>
       </c>
       <c r="I158" t="s">
         <v>12</v>
@@ -7727,8 +7737,8 @@
       <c r="G159" s="1">
         <v>9</v>
       </c>
-      <c r="H159" s="1">
-        <v>6</v>
+      <c r="H159">
+        <v>17</v>
       </c>
       <c r="I159" t="s">
         <v>27</v>
@@ -7762,8 +7772,8 @@
       <c r="G160" s="1">
         <v>7</v>
       </c>
-      <c r="H160" s="1">
-        <v>5</v>
+      <c r="H160">
+        <v>22</v>
       </c>
       <c r="I160" t="s">
         <v>12</v>
@@ -7797,8 +7807,8 @@
       <c r="G161" s="1">
         <v>8</v>
       </c>
-      <c r="H161" s="1">
-        <v>11</v>
+      <c r="H161">
+        <v>6</v>
       </c>
       <c r="I161" t="s">
         <v>52</v>
@@ -7832,8 +7842,8 @@
       <c r="G162" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H162" s="1">
-        <v>1</v>
+      <c r="H162">
+        <v>21</v>
       </c>
       <c r="I162" t="s">
         <v>52</v>
@@ -7867,8 +7877,8 @@
       <c r="G163" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H163" s="1">
-        <v>12</v>
+      <c r="H163">
+        <v>14</v>
       </c>
       <c r="I163" t="s">
         <v>12</v>
@@ -7902,8 +7912,8 @@
       <c r="G164" s="1">
         <v>8</v>
       </c>
-      <c r="H164" s="1">
-        <v>4</v>
+      <c r="H164">
+        <v>9</v>
       </c>
       <c r="I164" t="s">
         <v>27</v>
@@ -7937,8 +7947,8 @@
       <c r="G165" s="1">
         <v>7</v>
       </c>
-      <c r="H165" s="1">
-        <v>0</v>
+      <c r="H165">
+        <v>16</v>
       </c>
       <c r="I165" t="s">
         <v>27</v>
@@ -7972,8 +7982,8 @@
       <c r="G166" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H166" s="1">
-        <v>10</v>
+      <c r="H166">
+        <v>11</v>
       </c>
       <c r="I166" t="s">
         <v>27</v>
@@ -8007,8 +8017,8 @@
       <c r="G167" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H167" s="1">
-        <v>15</v>
+      <c r="H167">
+        <v>9</v>
       </c>
       <c r="I167" t="s">
         <v>27</v>
@@ -8042,8 +8052,8 @@
       <c r="G168" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H168" s="1">
-        <v>10</v>
+      <c r="H168">
+        <v>17</v>
       </c>
       <c r="I168" t="s">
         <v>38</v>
@@ -8077,8 +8087,8 @@
       <c r="G169" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H169" s="1">
-        <v>14</v>
+      <c r="H169">
+        <v>11</v>
       </c>
       <c r="I169" t="s">
         <v>12</v>
@@ -8112,8 +8122,8 @@
       <c r="G170" s="1">
         <v>8</v>
       </c>
-      <c r="H170" s="1">
-        <v>20</v>
+      <c r="H170">
+        <v>10</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -8147,8 +8157,8 @@
       <c r="G171" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H171" s="1">
-        <v>1</v>
+      <c r="H171">
+        <v>12</v>
       </c>
       <c r="I171" t="s">
         <v>27</v>
@@ -8182,8 +8192,8 @@
       <c r="G172" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H172" s="1">
-        <v>3</v>
+      <c r="H172">
+        <v>15</v>
       </c>
       <c r="I172" t="s">
         <v>27</v>
@@ -8217,8 +8227,8 @@
       <c r="G173" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H173" s="1">
-        <v>8</v>
+      <c r="H173">
+        <v>17</v>
       </c>
       <c r="I173" t="s">
         <v>12</v>
@@ -8252,7 +8262,7 @@
       <c r="G174" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H174">
         <v>10</v>
       </c>
       <c r="I174" t="s">
@@ -8287,8 +8297,8 @@
       <c r="G175" s="1">
         <v>6</v>
       </c>
-      <c r="H175" s="1">
-        <v>0</v>
+      <c r="H175">
+        <v>15</v>
       </c>
       <c r="I175" t="s">
         <v>36</v>
@@ -8322,8 +8332,8 @@
       <c r="G176" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H176" s="1">
-        <v>2</v>
+      <c r="H176">
+        <v>19</v>
       </c>
       <c r="I176" t="s">
         <v>23</v>
@@ -8357,8 +8367,8 @@
       <c r="G177" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H177" s="1">
-        <v>1</v>
+      <c r="H177">
+        <v>10</v>
       </c>
       <c r="I177" t="s">
         <v>12</v>
@@ -8392,8 +8402,8 @@
       <c r="G178" s="1">
         <v>7</v>
       </c>
-      <c r="H178" s="1">
-        <v>1</v>
+      <c r="H178">
+        <v>20</v>
       </c>
       <c r="I178" t="s">
         <v>52</v>
@@ -8427,8 +8437,8 @@
       <c r="G179" s="1">
         <v>9</v>
       </c>
-      <c r="H179" s="1">
-        <v>2</v>
+      <c r="H179">
+        <v>12</v>
       </c>
       <c r="I179" t="s">
         <v>52</v>
@@ -8462,8 +8472,8 @@
       <c r="G180" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H180" s="1">
-        <v>12</v>
+      <c r="H180">
+        <v>5</v>
       </c>
       <c r="I180" t="s">
         <v>17</v>
@@ -8497,8 +8507,8 @@
       <c r="G181" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H181" s="1">
-        <v>8</v>
+      <c r="H181">
+        <v>21</v>
       </c>
       <c r="I181" t="s">
         <v>23</v>
@@ -8532,8 +8542,8 @@
       <c r="G182" s="1">
         <v>8</v>
       </c>
-      <c r="H182" s="1">
-        <v>13</v>
+      <c r="H182">
+        <v>10</v>
       </c>
       <c r="I182" t="s">
         <v>17</v>
@@ -8567,8 +8577,8 @@
       <c r="G183" s="1">
         <v>8</v>
       </c>
-      <c r="H183" s="1">
-        <v>13</v>
+      <c r="H183">
+        <v>8</v>
       </c>
       <c r="I183" t="s">
         <v>36</v>
@@ -8602,8 +8612,8 @@
       <c r="G184" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H184" s="1">
-        <v>20</v>
+      <c r="H184">
+        <v>12</v>
       </c>
       <c r="I184" t="s">
         <v>17</v>
@@ -8637,8 +8647,8 @@
       <c r="G185" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H185" s="1">
-        <v>4</v>
+      <c r="H185">
+        <v>12</v>
       </c>
       <c r="I185" t="s">
         <v>12</v>
@@ -8672,7 +8682,7 @@
       <c r="G186" s="1">
         <v>9</v>
       </c>
-      <c r="H186" s="1">
+      <c r="H186">
         <v>11</v>
       </c>
       <c r="I186" t="s">
@@ -8707,8 +8717,8 @@
       <c r="G187" s="1">
         <v>8</v>
       </c>
-      <c r="H187" s="1">
-        <v>11</v>
+      <c r="H187">
+        <v>20</v>
       </c>
       <c r="I187" t="s">
         <v>27</v>
@@ -8742,8 +8752,8 @@
       <c r="G188" s="1">
         <v>10</v>
       </c>
-      <c r="H188" s="1">
-        <v>1</v>
+      <c r="H188">
+        <v>13</v>
       </c>
       <c r="I188" t="s">
         <v>17</v>
@@ -8777,8 +8787,8 @@
       <c r="G189" s="1">
         <v>8</v>
       </c>
-      <c r="H189" s="1">
-        <v>12</v>
+      <c r="H189">
+        <v>13</v>
       </c>
       <c r="I189" t="s">
         <v>12</v>
@@ -8812,8 +8822,8 @@
       <c r="G190" s="1">
         <v>9</v>
       </c>
-      <c r="H190" s="1">
-        <v>10</v>
+      <c r="H190">
+        <v>9</v>
       </c>
       <c r="I190" t="s">
         <v>36</v>
@@ -8847,8 +8857,8 @@
       <c r="G191" s="1">
         <v>7</v>
       </c>
-      <c r="H191" s="1">
-        <v>16</v>
+      <c r="H191">
+        <v>12</v>
       </c>
       <c r="I191" t="s">
         <v>52</v>
@@ -8882,8 +8892,8 @@
       <c r="G192" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H192" s="1">
-        <v>10</v>
+      <c r="H192">
+        <v>7</v>
       </c>
       <c r="I192" t="s">
         <v>12</v>
@@ -8917,8 +8927,8 @@
       <c r="G193" s="1">
         <v>9</v>
       </c>
-      <c r="H193" s="1">
-        <v>2</v>
+      <c r="H193">
+        <v>15</v>
       </c>
       <c r="I193" t="s">
         <v>27</v>
@@ -8952,8 +8962,8 @@
       <c r="G194" s="1">
         <v>7</v>
       </c>
-      <c r="H194" s="1">
-        <v>16</v>
+      <c r="H194">
+        <v>21</v>
       </c>
       <c r="I194" t="s">
         <v>23</v>
@@ -8987,8 +8997,8 @@
       <c r="G195" s="1">
         <v>8</v>
       </c>
-      <c r="H195" s="1">
-        <v>4</v>
+      <c r="H195">
+        <v>10</v>
       </c>
       <c r="I195" t="s">
         <v>27</v>
@@ -9022,8 +9032,8 @@
       <c r="G196" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H196" s="1">
-        <v>10</v>
+      <c r="H196">
+        <v>7</v>
       </c>
       <c r="I196" t="s">
         <v>23</v>
@@ -9057,8 +9067,8 @@
       <c r="G197" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H197" s="1">
-        <v>9</v>
+      <c r="H197">
+        <v>12</v>
       </c>
       <c r="I197" t="s">
         <v>23</v>
@@ -9092,8 +9102,8 @@
       <c r="G198" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H198" s="1">
-        <v>7</v>
+      <c r="H198">
+        <v>14</v>
       </c>
       <c r="I198" t="s">
         <v>17</v>
@@ -9127,8 +9137,8 @@
       <c r="G199" s="1">
         <v>6</v>
       </c>
-      <c r="H199" s="1">
-        <v>11</v>
+      <c r="H199">
+        <v>14</v>
       </c>
       <c r="I199" t="s">
         <v>27</v>
@@ -9162,8 +9172,8 @@
       <c r="G200" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H200" s="1">
-        <v>13</v>
+      <c r="H200">
+        <v>20</v>
       </c>
       <c r="I200" t="s">
         <v>17</v>
@@ -9197,7 +9207,7 @@
       <c r="G201" s="1">
         <v>8</v>
       </c>
-      <c r="H201" s="1">
+      <c r="H201">
         <v>9</v>
       </c>
       <c r="I201" t="s">
@@ -9232,8 +9242,8 @@
       <c r="G202" s="1">
         <v>7</v>
       </c>
-      <c r="H202" s="1">
-        <v>7</v>
+      <c r="H202">
+        <v>16</v>
       </c>
       <c r="I202" t="s">
         <v>17</v>
@@ -9267,8 +9277,8 @@
       <c r="G203" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H203" s="1">
-        <v>9</v>
+      <c r="H203">
+        <v>13</v>
       </c>
       <c r="I203" t="s">
         <v>27</v>
@@ -9302,8 +9312,8 @@
       <c r="G204" s="1">
         <v>8</v>
       </c>
-      <c r="H204" s="1">
-        <v>3</v>
+      <c r="H204">
+        <v>15</v>
       </c>
       <c r="I204" t="s">
         <v>38</v>
@@ -9337,8 +9347,8 @@
       <c r="G205" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H205" s="1">
-        <v>17</v>
+      <c r="H205">
+        <v>13</v>
       </c>
       <c r="I205" t="s">
         <v>27</v>
@@ -9372,8 +9382,8 @@
       <c r="G206" s="1">
         <v>6</v>
       </c>
-      <c r="H206" s="1">
-        <v>4</v>
+      <c r="H206">
+        <v>11</v>
       </c>
       <c r="I206" t="s">
         <v>12</v>
@@ -9407,8 +9417,8 @@
       <c r="G207" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H207" s="1">
-        <v>11</v>
+      <c r="H207">
+        <v>8</v>
       </c>
       <c r="I207" t="s">
         <v>23</v>
@@ -9442,7 +9452,7 @@
       <c r="G208" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H208" s="1">
+      <c r="H208">
         <v>10</v>
       </c>
       <c r="I208" t="s">
@@ -9477,8 +9487,8 @@
       <c r="G209" s="1">
         <v>6</v>
       </c>
-      <c r="H209" s="1">
-        <v>17</v>
+      <c r="H209">
+        <v>11</v>
       </c>
       <c r="I209" t="s">
         <v>38</v>
@@ -9512,8 +9522,8 @@
       <c r="G210" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H210" s="1">
-        <v>0</v>
+      <c r="H210">
+        <v>15</v>
       </c>
       <c r="I210" t="s">
         <v>17</v>
@@ -9547,8 +9557,8 @@
       <c r="G211" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H211" s="1">
-        <v>8</v>
+      <c r="H211">
+        <v>11</v>
       </c>
       <c r="I211" t="s">
         <v>17</v>
@@ -9582,8 +9592,8 @@
       <c r="G212" s="1">
         <v>9</v>
       </c>
-      <c r="H212" s="1">
-        <v>16</v>
+      <c r="H212">
+        <v>7</v>
       </c>
       <c r="I212" t="s">
         <v>27</v>
@@ -9617,8 +9627,8 @@
       <c r="G213" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H213" s="1">
-        <v>6</v>
+      <c r="H213">
+        <v>8</v>
       </c>
       <c r="I213" t="s">
         <v>17</v>
@@ -9652,8 +9662,8 @@
       <c r="G214" s="1">
         <v>9</v>
       </c>
-      <c r="H214" s="1">
-        <v>18</v>
+      <c r="H214">
+        <v>13</v>
       </c>
       <c r="I214" t="s">
         <v>17</v>
@@ -9687,8 +9697,8 @@
       <c r="G215" s="1">
         <v>7</v>
       </c>
-      <c r="H215" s="1">
-        <v>9</v>
+      <c r="H215">
+        <v>7</v>
       </c>
       <c r="I215" t="s">
         <v>17</v>
@@ -9722,8 +9732,8 @@
       <c r="G216" s="1">
         <v>8</v>
       </c>
-      <c r="H216" s="1">
-        <v>8</v>
+      <c r="H216">
+        <v>12</v>
       </c>
       <c r="I216" t="s">
         <v>27</v>
@@ -9757,8 +9767,8 @@
       <c r="G217" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H217" s="1">
-        <v>2</v>
+      <c r="H217">
+        <v>13</v>
       </c>
       <c r="I217" t="s">
         <v>12</v>
@@ -9792,8 +9802,8 @@
       <c r="G218" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H218" s="1">
-        <v>8</v>
+      <c r="H218">
+        <v>15</v>
       </c>
       <c r="I218" t="s">
         <v>17</v>
@@ -9827,8 +9837,8 @@
       <c r="G219" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H219" s="1">
-        <v>4</v>
+      <c r="H219">
+        <v>13</v>
       </c>
       <c r="I219" t="s">
         <v>17</v>
@@ -9862,8 +9872,8 @@
       <c r="G220" s="1">
         <v>9</v>
       </c>
-      <c r="H220" s="1">
-        <v>16</v>
+      <c r="H220">
+        <v>12</v>
       </c>
       <c r="I220" t="s">
         <v>36</v>
@@ -9897,8 +9907,8 @@
       <c r="G221" s="1">
         <v>7</v>
       </c>
-      <c r="H221" s="1">
-        <v>16</v>
+      <c r="H221">
+        <v>18</v>
       </c>
       <c r="I221" t="s">
         <v>17</v>
@@ -9932,8 +9942,8 @@
       <c r="G222" s="1">
         <v>7</v>
       </c>
-      <c r="H222" s="1">
-        <v>6</v>
+      <c r="H222">
+        <v>10</v>
       </c>
       <c r="I222" t="s">
         <v>17</v>
@@ -9967,8 +9977,8 @@
       <c r="G223" s="1">
         <v>7</v>
       </c>
-      <c r="H223" s="1">
-        <v>11</v>
+      <c r="H223">
+        <v>13</v>
       </c>
       <c r="I223" t="s">
         <v>52</v>
@@ -10002,8 +10012,8 @@
       <c r="G224" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H224" s="1">
-        <v>9</v>
+      <c r="H224">
+        <v>18</v>
       </c>
       <c r="I224" t="s">
         <v>17</v>
@@ -10037,8 +10047,8 @@
       <c r="G225" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H225" s="1">
-        <v>5</v>
+      <c r="H225">
+        <v>17</v>
       </c>
       <c r="I225" t="s">
         <v>17</v>
@@ -10072,8 +10082,8 @@
       <c r="G226" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H226" s="1">
-        <v>16</v>
+      <c r="H226">
+        <v>9</v>
       </c>
       <c r="I226" t="s">
         <v>38</v>
@@ -10107,8 +10117,8 @@
       <c r="G227" s="1">
         <v>8</v>
       </c>
-      <c r="H227" s="1">
-        <v>9</v>
+      <c r="H227">
+        <v>16</v>
       </c>
       <c r="I227" t="s">
         <v>27</v>
@@ -10142,8 +10152,8 @@
       <c r="G228" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H228" s="1">
-        <v>11</v>
+      <c r="H228">
+        <v>5</v>
       </c>
       <c r="I228" t="s">
         <v>17</v>
@@ -10177,8 +10187,8 @@
       <c r="G229" s="1">
         <v>7</v>
       </c>
-      <c r="H229" s="1">
-        <v>17</v>
+      <c r="H229">
+        <v>16</v>
       </c>
       <c r="I229" t="s">
         <v>23</v>
@@ -10212,8 +10222,8 @@
       <c r="G230" s="1">
         <v>9</v>
       </c>
-      <c r="H230" s="1">
-        <v>14</v>
+      <c r="H230">
+        <v>10</v>
       </c>
       <c r="I230" t="s">
         <v>12</v>
@@ -10247,8 +10257,8 @@
       <c r="G231" s="1">
         <v>7</v>
       </c>
-      <c r="H231" s="1">
-        <v>2</v>
+      <c r="H231">
+        <v>14</v>
       </c>
       <c r="I231" t="s">
         <v>23</v>
@@ -10282,8 +10292,8 @@
       <c r="G232" s="1">
         <v>6</v>
       </c>
-      <c r="H232" s="1">
-        <v>19</v>
+      <c r="H232">
+        <v>9</v>
       </c>
       <c r="I232" t="s">
         <v>27</v>
@@ -10317,8 +10327,8 @@
       <c r="G233" s="1">
         <v>8</v>
       </c>
-      <c r="H233" s="1">
-        <v>16</v>
+      <c r="H233">
+        <v>17</v>
       </c>
       <c r="I233" t="s">
         <v>17</v>
@@ -10352,8 +10362,8 @@
       <c r="G234" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H234" s="1">
-        <v>9</v>
+      <c r="H234">
+        <v>11</v>
       </c>
       <c r="I234" t="s">
         <v>12</v>
@@ -10387,8 +10397,8 @@
       <c r="G235" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H235" s="1">
-        <v>18</v>
+      <c r="H235">
+        <v>12</v>
       </c>
       <c r="I235" t="s">
         <v>27</v>
@@ -10422,8 +10432,8 @@
       <c r="G236" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H236" s="1">
-        <v>3</v>
+      <c r="H236">
+        <v>10</v>
       </c>
       <c r="I236" t="s">
         <v>38</v>
@@ -10457,8 +10467,8 @@
       <c r="G237" s="1">
         <v>7</v>
       </c>
-      <c r="H237" s="1">
-        <v>3</v>
+      <c r="H237">
+        <v>6</v>
       </c>
       <c r="I237" t="s">
         <v>27</v>
@@ -10492,8 +10502,8 @@
       <c r="G238" s="1">
         <v>7</v>
       </c>
-      <c r="H238" s="1">
-        <v>0</v>
+      <c r="H238">
+        <v>8</v>
       </c>
       <c r="I238" t="s">
         <v>12</v>
@@ -10527,8 +10537,8 @@
       <c r="G239" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H239" s="1">
-        <v>15</v>
+      <c r="H239">
+        <v>5</v>
       </c>
       <c r="I239" t="s">
         <v>17</v>
@@ -10562,8 +10572,8 @@
       <c r="G240" s="1">
         <v>9</v>
       </c>
-      <c r="H240" s="1">
-        <v>11</v>
+      <c r="H240">
+        <v>10</v>
       </c>
       <c r="I240" t="s">
         <v>17</v>
@@ -10597,8 +10607,8 @@
       <c r="G241" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H241" s="1">
-        <v>20</v>
+      <c r="H241">
+        <v>10</v>
       </c>
       <c r="I241" t="s">
         <v>17</v>
@@ -10632,8 +10642,8 @@
       <c r="G242" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H242" s="1">
-        <v>12</v>
+      <c r="H242">
+        <v>7</v>
       </c>
       <c r="I242" t="s">
         <v>38</v>
@@ -10667,8 +10677,8 @@
       <c r="G243" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H243" s="1">
-        <v>9</v>
+      <c r="H243">
+        <v>12</v>
       </c>
       <c r="I243" t="s">
         <v>38</v>
@@ -10702,8 +10712,8 @@
       <c r="G244" s="1">
         <v>7</v>
       </c>
-      <c r="H244" s="1">
-        <v>0</v>
+      <c r="H244">
+        <v>11</v>
       </c>
       <c r="I244" t="s">
         <v>27</v>
@@ -10737,8 +10747,8 @@
       <c r="G245" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H245" s="1">
-        <v>15</v>
+      <c r="H245">
+        <v>14</v>
       </c>
       <c r="I245" t="s">
         <v>38</v>
@@ -10772,8 +10782,8 @@
       <c r="G246" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H246" s="1">
-        <v>1</v>
+      <c r="H246">
+        <v>10</v>
       </c>
       <c r="I246" t="s">
         <v>27</v>
@@ -10807,8 +10817,8 @@
       <c r="G247" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H247" s="1">
-        <v>18</v>
+      <c r="H247">
+        <v>8</v>
       </c>
       <c r="I247" t="s">
         <v>17</v>
@@ -10842,8 +10852,8 @@
       <c r="G248" s="1">
         <v>7</v>
       </c>
-      <c r="H248" s="1">
-        <v>0</v>
+      <c r="H248">
+        <v>16</v>
       </c>
       <c r="I248" t="s">
         <v>17</v>
@@ -10877,8 +10887,8 @@
       <c r="G249" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H249" s="1">
-        <v>12</v>
+      <c r="H249">
+        <v>18</v>
       </c>
       <c r="I249" t="s">
         <v>27</v>
@@ -10912,8 +10922,8 @@
       <c r="G250" s="1">
         <v>10</v>
       </c>
-      <c r="H250" s="1">
-        <v>0</v>
+      <c r="H250">
+        <v>8</v>
       </c>
       <c r="I250" t="s">
         <v>27</v>
@@ -10947,8 +10957,8 @@
       <c r="G251" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H251" s="1">
-        <v>14</v>
+      <c r="H251">
+        <v>11</v>
       </c>
       <c r="I251" t="s">
         <v>17</v>
@@ -10982,8 +10992,8 @@
       <c r="G252" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H252" s="1">
-        <v>1</v>
+      <c r="H252">
+        <v>13</v>
       </c>
       <c r="I252" t="s">
         <v>17</v>
@@ -11017,8 +11027,8 @@
       <c r="G253" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H253" s="1">
-        <v>17</v>
+      <c r="H253">
+        <v>8</v>
       </c>
       <c r="I253" t="s">
         <v>17</v>
@@ -11052,8 +11062,8 @@
       <c r="G254" s="1">
         <v>8</v>
       </c>
-      <c r="H254" s="1">
-        <v>3</v>
+      <c r="H254">
+        <v>9</v>
       </c>
       <c r="I254" t="s">
         <v>52</v>
@@ -11087,8 +11097,8 @@
       <c r="G255" s="1">
         <v>9</v>
       </c>
-      <c r="H255" s="1">
-        <v>13</v>
+      <c r="H255">
+        <v>9</v>
       </c>
       <c r="I255" t="s">
         <v>23</v>
@@ -11122,8 +11132,8 @@
       <c r="G256" s="1">
         <v>8</v>
       </c>
-      <c r="H256" s="1">
-        <v>18</v>
+      <c r="H256">
+        <v>8</v>
       </c>
       <c r="I256" t="s">
         <v>38</v>
@@ -11157,8 +11167,8 @@
       <c r="G257" s="1">
         <v>8</v>
       </c>
-      <c r="H257" s="1">
-        <v>4</v>
+      <c r="H257">
+        <v>8</v>
       </c>
       <c r="I257" t="s">
         <v>38</v>
@@ -11192,8 +11202,8 @@
       <c r="G258" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H258" s="1">
-        <v>4</v>
+      <c r="H258">
+        <v>15</v>
       </c>
       <c r="I258" t="s">
         <v>52</v>
@@ -11227,8 +11237,8 @@
       <c r="G259" s="1">
         <v>7</v>
       </c>
-      <c r="H259" s="1">
-        <v>17</v>
+      <c r="H259">
+        <v>9</v>
       </c>
       <c r="I259" t="s">
         <v>17</v>
@@ -11262,8 +11272,8 @@
       <c r="G260" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H260" s="1">
-        <v>9</v>
+      <c r="H260">
+        <v>15</v>
       </c>
       <c r="I260" t="s">
         <v>27</v>
@@ -11297,8 +11307,8 @@
       <c r="G261" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H261" s="1">
-        <v>20</v>
+      <c r="H261">
+        <v>11</v>
       </c>
       <c r="I261" t="s">
         <v>27</v>
@@ -11332,8 +11342,8 @@
       <c r="G262" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H262" s="1">
-        <v>10</v>
+      <c r="H262">
+        <v>9</v>
       </c>
       <c r="I262" t="s">
         <v>27</v>
@@ -11367,8 +11377,8 @@
       <c r="G263" s="1">
         <v>8</v>
       </c>
-      <c r="H263" s="1">
-        <v>12</v>
+      <c r="H263">
+        <v>11</v>
       </c>
       <c r="I263" t="s">
         <v>12</v>
@@ -11402,8 +11412,8 @@
       <c r="G264" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H264" s="1">
-        <v>18</v>
+      <c r="H264">
+        <v>13</v>
       </c>
       <c r="I264" t="s">
         <v>27</v>
@@ -11437,8 +11447,8 @@
       <c r="G265" s="1">
         <v>6</v>
       </c>
-      <c r="H265" s="1">
-        <v>18</v>
+      <c r="H265">
+        <v>8</v>
       </c>
       <c r="I265" t="s">
         <v>17</v>
@@ -11472,8 +11482,8 @@
       <c r="G266" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H266" s="1">
-        <v>18</v>
+      <c r="H266">
+        <v>9</v>
       </c>
       <c r="I266" t="s">
         <v>23</v>
@@ -11507,8 +11517,8 @@
       <c r="G267" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H267" s="1">
-        <v>10</v>
+      <c r="H267">
+        <v>15</v>
       </c>
       <c r="I267" t="s">
         <v>38</v>
@@ -11542,8 +11552,8 @@
       <c r="G268" s="1">
         <v>8</v>
       </c>
-      <c r="H268" s="1">
-        <v>19</v>
+      <c r="H268">
+        <v>17</v>
       </c>
       <c r="I268" t="s">
         <v>36</v>
@@ -11577,8 +11587,8 @@
       <c r="G269" s="1">
         <v>8</v>
       </c>
-      <c r="H269" s="1">
-        <v>20</v>
+      <c r="H269">
+        <v>15</v>
       </c>
       <c r="I269" t="s">
         <v>27</v>
@@ -11612,8 +11622,8 @@
       <c r="G270" s="1">
         <v>8</v>
       </c>
-      <c r="H270" s="1">
-        <v>20</v>
+      <c r="H270">
+        <v>12</v>
       </c>
       <c r="I270" t="s">
         <v>52</v>
@@ -11647,8 +11657,8 @@
       <c r="G271" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H271" s="1">
-        <v>12</v>
+      <c r="H271">
+        <v>11</v>
       </c>
       <c r="I271" t="s">
         <v>17</v>
@@ -11682,8 +11692,8 @@
       <c r="G272" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H272" s="1">
-        <v>16</v>
+      <c r="H272">
+        <v>17</v>
       </c>
       <c r="I272" t="s">
         <v>36</v>
@@ -11717,8 +11727,8 @@
       <c r="G273" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H273" s="1">
-        <v>19</v>
+      <c r="H273">
+        <v>18</v>
       </c>
       <c r="I273" t="s">
         <v>12</v>
@@ -11752,8 +11762,8 @@
       <c r="G274" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H274" s="1">
-        <v>9</v>
+      <c r="H274">
+        <v>8</v>
       </c>
       <c r="I274" t="s">
         <v>12</v>
@@ -11787,8 +11797,8 @@
       <c r="G275" s="1">
         <v>10</v>
       </c>
-      <c r="H275" s="1">
-        <v>9</v>
+      <c r="H275">
+        <v>11</v>
       </c>
       <c r="I275" t="s">
         <v>38</v>
@@ -11822,8 +11832,8 @@
       <c r="G276" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H276" s="1">
-        <v>9</v>
+      <c r="H276">
+        <v>10</v>
       </c>
       <c r="I276" t="s">
         <v>17</v>
@@ -11857,8 +11867,8 @@
       <c r="G277" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H277" s="1">
-        <v>8</v>
+      <c r="H277">
+        <v>12</v>
       </c>
       <c r="I277" t="s">
         <v>17</v>
@@ -11892,8 +11902,8 @@
       <c r="G278" s="1">
         <v>8</v>
       </c>
-      <c r="H278" s="1">
-        <v>13</v>
+      <c r="H278">
+        <v>14</v>
       </c>
       <c r="I278" t="s">
         <v>12</v>
@@ -11927,8 +11937,8 @@
       <c r="G279" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H279" s="1">
-        <v>17</v>
+      <c r="H279">
+        <v>8</v>
       </c>
       <c r="I279" t="s">
         <v>52</v>
@@ -11962,8 +11972,8 @@
       <c r="G280" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H280" s="1">
-        <v>4</v>
+      <c r="H280">
+        <v>11</v>
       </c>
       <c r="I280" t="s">
         <v>12</v>
@@ -11997,8 +12007,8 @@
       <c r="G281" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H281" s="1">
-        <v>12</v>
+      <c r="H281">
+        <v>19</v>
       </c>
       <c r="I281" t="s">
         <v>36</v>
@@ -12032,8 +12042,8 @@
       <c r="G282" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H282" s="1">
-        <v>19</v>
+      <c r="H282">
+        <v>7</v>
       </c>
       <c r="I282" t="s">
         <v>36</v>
@@ -12067,8 +12077,8 @@
       <c r="G283" s="1">
         <v>7</v>
       </c>
-      <c r="H283" s="1">
-        <v>18</v>
+      <c r="H283">
+        <v>5</v>
       </c>
       <c r="I283" t="s">
         <v>38</v>
@@ -12102,8 +12112,8 @@
       <c r="G284" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H284" s="1">
-        <v>9</v>
+      <c r="H284">
+        <v>16</v>
       </c>
       <c r="I284" t="s">
         <v>27</v>
@@ -12137,8 +12147,8 @@
       <c r="G285" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H285" s="1">
-        <v>5</v>
+      <c r="H285">
+        <v>11</v>
       </c>
       <c r="I285" t="s">
         <v>17</v>
@@ -12172,8 +12182,8 @@
       <c r="G286" s="1">
         <v>8</v>
       </c>
-      <c r="H286" s="1">
-        <v>20</v>
+      <c r="H286">
+        <v>17</v>
       </c>
       <c r="I286" t="s">
         <v>17</v>
@@ -12207,8 +12217,8 @@
       <c r="G287" s="1">
         <v>8</v>
       </c>
-      <c r="H287" s="1">
-        <v>8</v>
+      <c r="H287">
+        <v>7</v>
       </c>
       <c r="I287" t="s">
         <v>52</v>
@@ -12242,8 +12252,8 @@
       <c r="G288" s="1">
         <v>7</v>
       </c>
-      <c r="H288" s="1">
-        <v>7</v>
+      <c r="H288">
+        <v>13</v>
       </c>
       <c r="I288" t="s">
         <v>12</v>
@@ -12277,8 +12287,8 @@
       <c r="G289" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H289" s="1">
-        <v>18</v>
+      <c r="H289">
+        <v>14</v>
       </c>
       <c r="I289" t="s">
         <v>17</v>
@@ -12312,8 +12322,8 @@
       <c r="G290" s="1">
         <v>8</v>
       </c>
-      <c r="H290" s="1">
-        <v>12</v>
+      <c r="H290">
+        <v>9</v>
       </c>
       <c r="I290" t="s">
         <v>12</v>
@@ -12347,8 +12357,8 @@
       <c r="G291" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H291" s="1">
-        <v>17</v>
+      <c r="H291">
+        <v>13</v>
       </c>
       <c r="I291" t="s">
         <v>27</v>
@@ -12382,8 +12392,8 @@
       <c r="G292" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="H292" s="1">
-        <v>8</v>
+      <c r="H292">
+        <v>7</v>
       </c>
       <c r="I292" t="s">
         <v>38</v>
@@ -12417,8 +12427,8 @@
       <c r="G293" s="1">
         <v>10</v>
       </c>
-      <c r="H293" s="1">
-        <v>7</v>
+      <c r="H293">
+        <v>8</v>
       </c>
       <c r="I293" t="s">
         <v>27</v>
@@ -12452,8 +12462,8 @@
       <c r="G294" s="1">
         <v>9</v>
       </c>
-      <c r="H294" s="1">
-        <v>10</v>
+      <c r="H294">
+        <v>13</v>
       </c>
       <c r="I294" t="s">
         <v>36</v>
@@ -12487,8 +12497,8 @@
       <c r="G295" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H295" s="1">
-        <v>0</v>
+      <c r="H295">
+        <v>11</v>
       </c>
       <c r="I295" t="s">
         <v>17</v>
@@ -12522,8 +12532,8 @@
       <c r="G296" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H296" s="1">
-        <v>18</v>
+      <c r="H296">
+        <v>6</v>
       </c>
       <c r="I296" t="s">
         <v>23</v>
@@ -12557,8 +12567,8 @@
       <c r="G297" s="1">
         <v>8</v>
       </c>
-      <c r="H297" s="1">
-        <v>20</v>
+      <c r="H297">
+        <v>13</v>
       </c>
       <c r="I297" t="s">
         <v>27</v>
@@ -12592,8 +12602,8 @@
       <c r="G298" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H298" s="1">
-        <v>13</v>
+      <c r="H298">
+        <v>9</v>
       </c>
       <c r="I298" t="s">
         <v>52</v>
@@ -12627,8 +12637,8 @@
       <c r="G299" s="1">
         <v>6</v>
       </c>
-      <c r="H299" s="1">
-        <v>8</v>
+      <c r="H299">
+        <v>11</v>
       </c>
       <c r="I299" t="s">
         <v>27</v>
@@ -12662,8 +12672,8 @@
       <c r="G300" s="1">
         <v>6</v>
       </c>
-      <c r="H300" s="1">
-        <v>2</v>
+      <c r="H300">
+        <v>4</v>
       </c>
       <c r="I300" t="s">
         <v>23</v>
@@ -12697,8 +12707,8 @@
       <c r="G301" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H301" s="1">
-        <v>4</v>
+      <c r="H301">
+        <v>10</v>
       </c>
       <c r="I301" t="s">
         <v>23</v>
